--- a/main/xls/ea.xlsx
+++ b/main/xls/ea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F18" authorId="0">
+    <comment ref="F17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K19" authorId="0">
+    <comment ref="K18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="38">
   <si>
     <t>楼层名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,95 +219,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>C栋2楼（技术保障）-管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋3楼管理坐席-管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋4楼（副总办公室）-管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋4楼（人事）-管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋5楼-管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1培训教室（大）-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1楼作业大厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1楼作业大厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋1培训教室（小）-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋2楼作业大厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋3楼作业大厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋4楼作业大厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋1楼监控室-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋夹层培训教室-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋2楼机房-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C栋3楼作业大厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E栋1楼多功能厅-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E栋夹层-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋3楼仓库-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E栋3楼仓库-生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B栋2楼管理座席-管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>C栋2楼（管理）-管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋2楼（技术保障）-管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋3楼管理坐席-管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋4楼（副总办公室）-管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋4楼（人事）-管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋5楼-管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋1培训教室（大）-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋1楼作业大厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋1楼作业大厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋1培训教室（小）-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋2楼作业大厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋2楼管理座席-管理-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋3楼作业大厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋4楼作业大厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>借调上海分行-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋1楼监控室-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋夹层培训教室-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋2楼机房-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C栋3楼作业大厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E栋1楼多功能厅-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E栋夹层-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B栋3楼仓库-生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E栋3楼仓库-生产</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,12 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,12 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -809,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G2" sqref="G2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -852,13 +836,13 @@
       <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
@@ -891,7 +875,7 @@
     </row>
     <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6">
         <v>5</v>
@@ -943,7 +927,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -974,7 +958,7 @@
     </row>
     <row r="6" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1005,7 +989,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
@@ -1020,7 +1004,7 @@
     </row>
     <row r="8" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1043,7 +1027,7 @@
     </row>
     <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1066,7 +1050,7 @@
     </row>
     <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="9">
         <v>6</v>
@@ -1132,7 +1116,7 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1166,66 +1150,80 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>1</v>
@@ -1236,8 +1234,8 @@
       <c r="F15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>1</v>
+      <c r="G15" s="2">
+        <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -1249,15 +1247,13 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>32</v>
+      <c r="A16" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1267,13 +1263,13 @@
       <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
-        <v>42</v>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2"/>
@@ -1283,160 +1279,162 @@
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1</v>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>70</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3">
+        <v>25</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>70</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>13</v>
-      </c>
       <c r="J20" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
@@ -1445,7 +1443,7 @@
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1457,183 +1455,152 @@
       <c r="F22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>1</v>
+      <c r="G22" s="2">
+        <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>2</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
         <v>0</v>
       </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>0</v>
+      <c r="H24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2">
+        <v>21</v>
+      </c>
       <c r="J26" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>22</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2">
-        <v>21</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="2">
-        <v>21</v>
-      </c>
-      <c r="J27" s="2">
-        <v>20</v>
-      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2">
-        <v>43</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>22</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
